--- a/demo1/src/test/resources/demo1/Demo1.xlsx
+++ b/demo1/src/test/resources/demo1/Demo1.xlsx
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0">
+    <comment ref="C21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,28 +87,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">concordion:set=”#id”
-(table)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">concordion</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">:execute=”#result=compute(#id)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D18" authorId="0">
+(table)concordion:execute=”#result=compute(#id)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0">
+    <comment ref="E21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -209,11 +192,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -288,8 +266,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C18:E21" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="C18:E21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C21:E24" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="C21:E24"/>
   <tableColumns count="3">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="a"/>
@@ -303,10 +281,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -350,37 +328,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="3" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="n">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D22" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E22" s="0" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="n">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D23" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E23" s="0" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
